--- a/data/trans_dic/P13A_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Provincia-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.003597121234801936</v>
+        <v>0.003597121234801937</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.01522715267660744</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.009386632839541045</v>
+        <v>0.009386632839541047</v>
       </c>
     </row>
     <row r="5">
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.007243616582887387</v>
+        <v>0.00760263152316497</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004674567256437762</v>
+        <v>0.004543650436968511</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01773571033738749</v>
+        <v>0.01799011705731033</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02809549439721248</v>
+        <v>0.02910151718320637</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01808664629920104</v>
+        <v>0.01751548808358116</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.02482135440954131</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05059491446960077</v>
+        <v>0.05059491446960078</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.03789772996950494</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01254774420441638</v>
+        <v>0.01257613781293691</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03571274935031899</v>
+        <v>0.03591611739223671</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02870664095975407</v>
+        <v>0.02776460827564804</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04497153899441605</v>
+        <v>0.04454880071863745</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06989088080400913</v>
+        <v>0.06897149288233136</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05004332694616358</v>
+        <v>0.05083527877408472</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.007141392067053314</v>
+        <v>0.007714658182529263</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03319250101737384</v>
+        <v>0.03374710525820154</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0233908857220216</v>
+        <v>0.02432645503674866</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03469267262215862</v>
+        <v>0.03410148637580551</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07138321628740732</v>
+        <v>0.07254057940623829</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04797758747513328</v>
+        <v>0.04821277399277668</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001477291321420934</v>
+        <v>0.001527118063363542</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0287808751547622</v>
+        <v>0.02810748448601378</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01699689646181669</v>
+        <v>0.01692735559418528</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01594245443273245</v>
+        <v>0.01471502008528502</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08878505818994398</v>
+        <v>0.08442222644707914</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05023416236911929</v>
+        <v>0.04748696780845246</v>
       </c>
     </row>
     <row r="16">
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009224927733412304</v>
+        <v>0.009945509352166666</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.007961789726515445</v>
+        <v>0.008323371937381323</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03600393934473972</v>
+        <v>0.04138021583701259</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03701534692460353</v>
+        <v>0.03655196645139829</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02712615762103759</v>
+        <v>0.02867581267520932</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.02284633879094777</v>
+        <v>0.02284633879094778</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.04677704553902436</v>
+        <v>0.04677704553902435</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.03465430925142895</v>
+        <v>0.03465430925142896</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01064490258653679</v>
+        <v>0.01141264869808521</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03067895472870087</v>
+        <v>0.02933125156375562</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0233081957988243</v>
+        <v>0.02416475809197264</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04070870553622927</v>
+        <v>0.04345762439402891</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06879149083594381</v>
+        <v>0.06870895054768725</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04918679141500464</v>
+        <v>0.04914713420460616</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.005420684918154524</v>
+        <v>0.006069120030297194</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04813133476351133</v>
+        <v>0.04920146798421837</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03046414049153589</v>
+        <v>0.02971137997028859</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02314136113399124</v>
+        <v>0.02403461560182695</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08005159518711556</v>
+        <v>0.07976591262220271</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0504957307448928</v>
+        <v>0.04782168619820994</v>
       </c>
     </row>
     <row r="25">
@@ -969,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01621543860084113</v>
+        <v>0.01595226711426747</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.008597916462325023</v>
+        <v>0.008747548223327782</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0071081582803107</v>
+        <v>0.007287462451084446</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03706455075273284</v>
+        <v>0.03649424945665979</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01892629075499285</v>
+        <v>0.0194572325781575</v>
       </c>
     </row>
     <row r="28">
@@ -1007,10 +1007,10 @@
         <v>0.01134071447310502</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.04172072495503839</v>
+        <v>0.04172072495503838</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.0269465743780494</v>
+        <v>0.02694657437804941</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.00825596437309384</v>
+        <v>0.008299648256392896</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.03611444804591855</v>
+        <v>0.03646491850232821</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02378849893491861</v>
+        <v>0.02355325836603392</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01537438538715443</v>
+        <v>0.01554821243917731</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04874032050514027</v>
+        <v>0.0477714198252031</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0309719647443804</v>
+        <v>0.03078181500823735</v>
       </c>
     </row>
     <row r="31">
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2289</v>
+        <v>2403</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2968</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5655</v>
+        <v>5736</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8880</v>
+        <v>9198</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11483</v>
+        <v>11121</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6658</v>
+        <v>6673</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19517</v>
+        <v>19628</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>30921</v>
+        <v>29906</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>23864</v>
+        <v>23640</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>38195</v>
+        <v>37693</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>53904</v>
+        <v>54757</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2242</v>
+        <v>2422</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11708</v>
+        <v>11904</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15593</v>
+        <v>16217</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10890</v>
+        <v>10705</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25180</v>
+        <v>25588</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>31984</v>
+        <v>32141</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12112</v>
+        <v>11829</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13482</v>
+        <v>13427</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5936</v>
+        <v>5479</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>37364</v>
+        <v>35528</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>39846</v>
+        <v>37666</v>
       </c>
     </row>
     <row r="20">
@@ -1481,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2096</v>
+        <v>2260</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3446</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7405</v>
+        <v>8510</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8410</v>
+        <v>8305</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>11742</v>
+        <v>12413</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2878</v>
+        <v>3086</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8079</v>
+        <v>7724</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>12440</v>
+        <v>12897</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11006</v>
+        <v>11749</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18116</v>
+        <v>18094</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>26251</v>
+        <v>26230</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3850</v>
+        <v>4311</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>36837</v>
+        <v>37656</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>44954</v>
+        <v>43843</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>16437</v>
+        <v>17072</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>61268</v>
+        <v>61049</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>74514</v>
+        <v>70568</v>
       </c>
     </row>
     <row r="32">
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>13379</v>
+        <v>13162</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>13946</v>
+        <v>14189</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>5665</v>
+        <v>5808</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>30581</v>
+        <v>30111</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>30699</v>
+        <v>31560</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>29053</v>
+        <v>29207</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>134242</v>
+        <v>135544</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>172137</v>
+        <v>170435</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>54103</v>
+        <v>54714</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>181174</v>
+        <v>177572</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>224117</v>
+        <v>222741</v>
       </c>
     </row>
     <row r="40">
